--- a/Checklist_Meta1.xlsx
+++ b/Checklist_Meta1.xlsx
@@ -895,7 +895,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D27" sqref="D27"/>

--- a/Checklist_Meta1.xlsx
+++ b/Checklist_Meta1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomás\Documents\GitHub\SD-BD\SD-BD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -227,8 +222,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -891,17 +886,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="18.125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -910,7 +905,7 @@
     <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="21">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -918,7 +913,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="26.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -927,7 +922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="26.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -942,7 +937,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <f>A7+A27+A32+A41+A55</f>
         <v>81</v>
@@ -960,10 +955,10 @@
       </c>
       <c r="E6">
         <f>E7+E27+E32+E41+E55</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.75">
       <c r="A7" s="1">
         <f>SUM((A8:A26))</f>
         <v>31</v>
@@ -984,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8">
         <v>3</v>
@@ -999,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1016,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10">
         <v>3</v>
@@ -1031,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1048,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1065,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>3</v>
@@ -1080,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -1097,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15">
         <v>3</v>
@@ -1112,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16">
         <v>3</v>
@@ -1127,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17">
         <v>3</v>
@@ -1142,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1159,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -1176,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1193,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -1210,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>6</v>
       </c>
@@ -1227,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23">
         <v>0</v>
@@ -1239,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1253,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="B25">
         <v>0</v>
       </c>
@@ -1264,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1278,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75">
       <c r="A27" s="1">
         <f>SUM(A28:A31)</f>
         <v>14</v>
@@ -1299,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1316,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1333,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1347,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1361,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75">
       <c r="A32" s="1">
         <f>SUM(A33:A40)</f>
         <v>22</v>
@@ -1379,10 +1374,10 @@
       </c>
       <c r="E32" s="1">
         <f>SUM(E33:E40)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1396,10 +1391,10 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1416,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1430,10 +1425,10 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="B36">
         <v>4</v>
       </c>
@@ -1443,8 +1438,11 @@
       <c r="D36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1458,10 +1456,10 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1475,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1495,7 +1493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1512,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75">
       <c r="A41" s="1">
         <f>SUM(A42:A48)</f>
         <v>14</v>
@@ -1532,7 +1530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1546,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1560,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1574,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1588,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1602,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1616,7 +1614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1630,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75">
       <c r="A49" s="1">
         <f>SUM(A50:A55)</f>
         <v>0</v>
@@ -1651,32 +1649,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="C50" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="C51" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="C52" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="C53" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="C54" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="18.75">
       <c r="A55" s="1">
         <f>SUM(A56:A57)</f>
         <v>0</v>
@@ -1697,52 +1695,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="C56" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="C57" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="C58" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="C59" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="C61" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="C62" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="C63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="C64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
         <v>61</v>
       </c>

--- a/Checklist_Meta1.xlsx
+++ b/Checklist_Meta1.xlsx
@@ -895,10 +895,10 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -956,7 +956,7 @@
       </c>
       <c r="D6">
         <f>D7+D27+D32+D41+D55</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <f>E7+E27+E32+E41+E55</f>
@@ -977,7 +977,7 @@
       </c>
       <c r="D7" s="1">
         <f>SUM((D8:D26))</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1">
         <f>SUM((E8:E26))</f>
@@ -1153,7 +1153,7 @@
         <v>29</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
